--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna4-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna4-Epha5.xlsx
@@ -528,22 +528,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H2">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I2">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J2">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N2">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1332211113337778</v>
+        <v>0.4370297756768889</v>
       </c>
       <c r="R2">
-        <v>1.198990002004</v>
+        <v>3.933267981092</v>
       </c>
       <c r="S2">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="T2">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H3">
         <v>2.989327</v>
       </c>
       <c r="I3">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J3">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N3">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1972072307797778</v>
+        <v>0.3034801306618889</v>
       </c>
       <c r="R3">
-        <v>1.774865077018</v>
+        <v>2.731321175957</v>
       </c>
       <c r="S3">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="T3">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H4">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I4">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J4">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N4">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.07661893179355556</v>
+        <v>0.1316641928758889</v>
       </c>
       <c r="R4">
-        <v>0.6895703861420002</v>
+        <v>1.184977735883</v>
       </c>
       <c r="S4">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="T4">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
     </row>
   </sheetData>
